--- a/163-srp-utg-vs-bb-flat.gto.xlsx
+++ b/163-srp-utg-vs-bb-flat.gto.xlsx
@@ -3,8 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="BB" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="UTG v Check" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="UTG v Bet4.5" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Ranges" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="180">
   <si>
     <t>Tree</t>
   </si>
@@ -516,6 +518,24 @@
   </si>
   <si>
     <t>As9d2c</t>
+  </si>
+  <si>
+    <t>Bet 5.9</t>
+  </si>
+  <si>
+    <t>Bet 3</t>
+  </si>
+  <si>
+    <t>163 flops</t>
+  </si>
+  <si>
+    <t>Raise 14.6</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Fold</t>
   </si>
   <si>
     <t>Position</t>
@@ -567,11 +587,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -587,6 +610,14 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3599,26 +3630,6656 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>169</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>147</v>
+      </c>
+      <c r="B2" s="1">
+        <v>66.671</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.844</v>
+      </c>
+      <c r="D2" s="1">
+        <v>30.715</v>
+      </c>
+      <c r="E2" s="1">
+        <v>40.357</v>
+      </c>
+      <c r="F2" s="1">
+        <v>28.927</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="1">
+        <v>65.803</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.014</v>
+      </c>
+      <c r="D3" s="1">
+        <v>22.154</v>
+      </c>
+      <c r="E3" s="1">
+        <v>55.388</v>
+      </c>
+      <c r="F3" s="1">
+        <v>22.458</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="1">
+        <v>65.568</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.249</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44.881</v>
+      </c>
+      <c r="E4" s="1">
+        <v>54.668</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.451</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="1">
+        <v>64.667</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.028</v>
+      </c>
+      <c r="D5" s="1">
+        <v>48.694</v>
+      </c>
+      <c r="E5" s="1">
+        <v>29.394</v>
+      </c>
+      <c r="F5" s="1">
+        <v>21.912</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="1">
+        <v>64.337</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.797</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.79</v>
+      </c>
+      <c r="E6" s="1">
+        <v>67.319</v>
+      </c>
+      <c r="F6" s="1">
+        <v>24.891</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="1">
+        <v>64.157</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.951</v>
+      </c>
+      <c r="D7" s="1">
+        <v>22.634</v>
+      </c>
+      <c r="E7" s="1">
+        <v>53.275</v>
+      </c>
+      <c r="F7" s="1">
+        <v>24.091</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="1">
+        <v>63.942</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.455</v>
+      </c>
+      <c r="D8" s="1">
+        <v>93.886</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5.296</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.818</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="1">
+        <v>63.76</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.783</v>
+      </c>
+      <c r="D9" s="1">
+        <v>24.415</v>
+      </c>
+      <c r="E9" s="1">
+        <v>48.539</v>
+      </c>
+      <c r="F9" s="1">
+        <v>27.046</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="1">
+        <v>63.752</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.829</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10.39</v>
+      </c>
+      <c r="E10" s="1">
+        <v>43.146</v>
+      </c>
+      <c r="F10" s="1">
+        <v>46.464</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="1">
+        <v>63.687</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6.562</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.086</v>
+      </c>
+      <c r="E11" s="1">
+        <v>99.868</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1">
+        <v>63.524</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.547</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8.274</v>
+      </c>
+      <c r="E12" s="1">
+        <v>51.269</v>
+      </c>
+      <c r="F12" s="1">
+        <v>40.457</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="1">
+        <v>63.48</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.503</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.753</v>
+      </c>
+      <c r="E13" s="1">
+        <v>61.087</v>
+      </c>
+      <c r="F13" s="1">
+        <v>35.159</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="1">
+        <v>63.473</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6.106</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43.374</v>
+      </c>
+      <c r="E14" s="1">
+        <v>53.713</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.914</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="1">
+        <v>63.376</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6.094</v>
+      </c>
+      <c r="D15" s="1">
+        <v>61.049</v>
+      </c>
+      <c r="E15" s="1">
+        <v>29.032</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9.919</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="1">
+        <v>63.35</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6.395</v>
+      </c>
+      <c r="D16" s="1">
+        <v>46.966</v>
+      </c>
+      <c r="E16" s="1">
+        <v>52.742</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.293</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="1">
+        <v>63.298</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5.641</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="E17" s="1">
+        <v>72.935</v>
+      </c>
+      <c r="F17" s="1">
+        <v>27.06</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="1">
+        <v>63.256</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5.509</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.315</v>
+      </c>
+      <c r="E18" s="1">
+        <v>58.976</v>
+      </c>
+      <c r="F18" s="1">
+        <v>39.709</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="1">
+        <v>63.18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6.12</v>
+      </c>
+      <c r="D19" s="1">
+        <v>15.279</v>
+      </c>
+      <c r="E19" s="1">
+        <v>84.419</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.301</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="1">
+        <v>63.162</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6.06</v>
+      </c>
+      <c r="D20" s="1">
+        <v>11.721</v>
+      </c>
+      <c r="E20" s="1">
+        <v>88.192</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.086</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="1">
+        <v>63.156</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6.313</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12.293</v>
+      </c>
+      <c r="E21" s="1">
+        <v>87.584</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="1">
+        <v>63.143</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6.062</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4.172</v>
+      </c>
+      <c r="E22" s="1">
+        <v>86.727</v>
+      </c>
+      <c r="F22" s="1">
+        <v>9.101</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="1">
+        <v>63.051</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6.157</v>
+      </c>
+      <c r="D23" s="1">
+        <v>39.1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>60.814</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.086</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="1">
+        <v>63.035</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6.244</v>
+      </c>
+      <c r="D24" s="1">
+        <v>29.703</v>
+      </c>
+      <c r="E24" s="1">
+        <v>70.266</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="1">
+        <v>62.949</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5.654</v>
+      </c>
+      <c r="D25" s="1">
+        <v>22.709</v>
+      </c>
+      <c r="E25" s="1">
+        <v>42.096</v>
+      </c>
+      <c r="F25" s="1">
+        <v>35.195</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="1">
+        <v>62.932</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5.921</v>
+      </c>
+      <c r="D26" s="1">
+        <v>41.242</v>
+      </c>
+      <c r="E26" s="1">
+        <v>41.428</v>
+      </c>
+      <c r="F26" s="1">
+        <v>17.33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="1">
+        <v>62.815</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5.311</v>
+      </c>
+      <c r="D27" s="1">
+        <v>24.277</v>
+      </c>
+      <c r="E27" s="1">
+        <v>42.042</v>
+      </c>
+      <c r="F27" s="1">
+        <v>33.681</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="1">
+        <v>62.704</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5.883</v>
+      </c>
+      <c r="D28" s="1">
+        <v>31.475</v>
+      </c>
+      <c r="E28" s="1">
+        <v>66.821</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.704</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="1">
+        <v>62.68</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5.649</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.002</v>
+      </c>
+      <c r="E29" s="1">
+        <v>75.494</v>
+      </c>
+      <c r="F29" s="1">
+        <v>24.503</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="1">
+        <v>62.661</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5.777</v>
+      </c>
+      <c r="D30" s="1">
+        <v>37.052</v>
+      </c>
+      <c r="E30" s="1">
+        <v>43.672</v>
+      </c>
+      <c r="F30" s="1">
+        <v>19.276</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="1">
+        <v>62.633</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6.377</v>
+      </c>
+      <c r="D31" s="1">
+        <v>74.362</v>
+      </c>
+      <c r="E31" s="1">
+        <v>24.272</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1.365</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="1">
+        <v>62.623</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5.615</v>
+      </c>
+      <c r="D32" s="1">
+        <v>27.904</v>
+      </c>
+      <c r="E32" s="1">
+        <v>53.213</v>
+      </c>
+      <c r="F32" s="1">
+        <v>18.882</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="1">
+        <v>62.619</v>
+      </c>
+      <c r="C33" s="1">
+        <v>6.466</v>
+      </c>
+      <c r="D33" s="1">
+        <v>88.9</v>
+      </c>
+      <c r="E33" s="1">
+        <v>10.307</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.794</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="1">
+        <v>62.558</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5.487</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2.085</v>
+      </c>
+      <c r="E34" s="1">
+        <v>57.627</v>
+      </c>
+      <c r="F34" s="1">
+        <v>40.289</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="1">
+        <v>62.525</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5.446</v>
+      </c>
+      <c r="D35" s="1">
+        <v>8.093</v>
+      </c>
+      <c r="E35" s="1">
+        <v>48.531</v>
+      </c>
+      <c r="F35" s="1">
+        <v>43.376</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="1">
+        <v>62.459</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5.926</v>
+      </c>
+      <c r="D36" s="1">
+        <v>58.491</v>
+      </c>
+      <c r="E36" s="1">
+        <v>29.311</v>
+      </c>
+      <c r="F36" s="1">
+        <v>12.198</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="1">
+        <v>62.427</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5.56</v>
+      </c>
+      <c r="D37" s="1">
+        <v>36.785</v>
+      </c>
+      <c r="E37" s="1">
+        <v>33.03</v>
+      </c>
+      <c r="F37" s="1">
+        <v>30.184</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="1">
+        <v>62.424</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5.867</v>
+      </c>
+      <c r="D38" s="1">
+        <v>34.932</v>
+      </c>
+      <c r="E38" s="1">
+        <v>59.295</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5.773</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="1">
+        <v>62.399</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5.838</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.932</v>
+      </c>
+      <c r="E39" s="1">
+        <v>97.935</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.133</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="1">
+        <v>62.391</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>30.687</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45.505</v>
+      </c>
+      <c r="F40" s="1">
+        <v>23.808</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="1">
+        <v>62.359</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5.71</v>
+      </c>
+      <c r="D41" s="1">
+        <v>31.385</v>
+      </c>
+      <c r="E41" s="1">
+        <v>30.471</v>
+      </c>
+      <c r="F41" s="1">
+        <v>38.145</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="1">
+        <v>62.358</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5.857</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.003</v>
+      </c>
+      <c r="E42" s="1">
+        <v>99.877</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="1">
+        <v>62.307</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5.773</v>
+      </c>
+      <c r="D43" s="1">
+        <v>13.571</v>
+      </c>
+      <c r="E43" s="1">
+        <v>56.131</v>
+      </c>
+      <c r="F43" s="1">
+        <v>30.298</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="1">
+        <v>62.261</v>
+      </c>
+      <c r="C44" s="1">
+        <v>6.022</v>
+      </c>
+      <c r="D44" s="1">
+        <v>61.638</v>
+      </c>
+      <c r="E44" s="1">
+        <v>33.763</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4.598</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="1">
+        <v>62.194</v>
+      </c>
+      <c r="C45" s="1">
+        <v>6.138</v>
+      </c>
+      <c r="D45" s="1">
+        <v>46.561</v>
+      </c>
+      <c r="E45" s="1">
+        <v>51.008</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2.431</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="1">
+        <v>62.178</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5.879</v>
+      </c>
+      <c r="D46" s="1">
+        <v>66.834</v>
+      </c>
+      <c r="E46" s="1">
+        <v>17.662</v>
+      </c>
+      <c r="F46" s="1">
+        <v>15.504</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="1">
+        <v>62.122</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5.623</v>
+      </c>
+      <c r="D47" s="1">
+        <v>39.626</v>
+      </c>
+      <c r="E47" s="1">
+        <v>35.977</v>
+      </c>
+      <c r="F47" s="1">
+        <v>24.397</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="1">
+        <v>62.024</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6.029</v>
+      </c>
+      <c r="D48" s="1">
+        <v>68.449</v>
+      </c>
+      <c r="E48" s="1">
+        <v>25.343</v>
+      </c>
+      <c r="F48" s="1">
+        <v>6.207</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="1">
+        <v>61.98</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5.878</v>
+      </c>
+      <c r="D49" s="1">
+        <v>47.972</v>
+      </c>
+      <c r="E49" s="1">
+        <v>47.585</v>
+      </c>
+      <c r="F49" s="1">
+        <v>4.443</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="1">
+        <v>61.956</v>
+      </c>
+      <c r="C50" s="1">
+        <v>6.058</v>
+      </c>
+      <c r="D50" s="1">
+        <v>66.857</v>
+      </c>
+      <c r="E50" s="1">
+        <v>30.009</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3.134</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="1">
+        <v>61.938</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5.726</v>
+      </c>
+      <c r="D51" s="1">
+        <v>14.216</v>
+      </c>
+      <c r="E51" s="1">
+        <v>74.533</v>
+      </c>
+      <c r="F51" s="1">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="1">
+        <v>61.929</v>
+      </c>
+      <c r="C52" s="1">
+        <v>6.147</v>
+      </c>
+      <c r="D52" s="1">
+        <v>48.372</v>
+      </c>
+      <c r="E52" s="1">
+        <v>51.162</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.465</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="1">
+        <v>61.924</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5.635</v>
+      </c>
+      <c r="D53" s="1">
+        <v>28.109</v>
+      </c>
+      <c r="E53" s="1">
+        <v>38.024</v>
+      </c>
+      <c r="F53" s="1">
+        <v>33.867</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="1">
+        <v>61.889</v>
+      </c>
+      <c r="C54" s="1">
+        <v>6.118</v>
+      </c>
+      <c r="D54" s="1">
+        <v>58.608</v>
+      </c>
+      <c r="E54" s="1">
+        <v>37.859</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3.534</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="1">
+        <v>61.867</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5.955</v>
+      </c>
+      <c r="D55" s="1">
+        <v>6.815</v>
+      </c>
+      <c r="E55" s="1">
+        <v>93.038</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.147</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="1">
+        <v>61.856</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5.406</v>
+      </c>
+      <c r="D56" s="1">
+        <v>16.659</v>
+      </c>
+      <c r="E56" s="1">
+        <v>39.224</v>
+      </c>
+      <c r="F56" s="1">
+        <v>44.117</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="1">
+        <v>61.815</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5.598</v>
+      </c>
+      <c r="D57" s="1">
+        <v>41.503</v>
+      </c>
+      <c r="E57" s="1">
+        <v>28.065</v>
+      </c>
+      <c r="F57" s="1">
+        <v>30.432</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="1">
+        <v>61.812</v>
+      </c>
+      <c r="C58" s="1">
+        <v>5.942</v>
+      </c>
+      <c r="D58" s="1">
+        <v>59.445</v>
+      </c>
+      <c r="E58" s="1">
+        <v>35.052</v>
+      </c>
+      <c r="F58" s="1">
+        <v>5.503</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="1">
+        <v>61.782</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="E59" s="1">
+        <v>98.255</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1.705</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1">
+        <v>61.756</v>
+      </c>
+      <c r="C60" s="1">
+        <v>5.721</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="E60" s="1">
+        <v>99.238</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.522</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="1">
+        <v>61.753</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5.86</v>
+      </c>
+      <c r="D61" s="1">
+        <v>59.284</v>
+      </c>
+      <c r="E61" s="1">
+        <v>27.676</v>
+      </c>
+      <c r="F61" s="1">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="1">
+        <v>61.743</v>
+      </c>
+      <c r="C62" s="1">
+        <v>6.084</v>
+      </c>
+      <c r="D62" s="1">
+        <v>61.718</v>
+      </c>
+      <c r="E62" s="1">
+        <v>29.501</v>
+      </c>
+      <c r="F62" s="1">
+        <v>8.781</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="1">
+        <v>61.74</v>
+      </c>
+      <c r="C63" s="1">
+        <v>5.668</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2.115</v>
+      </c>
+      <c r="E63" s="1">
+        <v>97.06</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="1">
+        <v>61.694</v>
+      </c>
+      <c r="C64" s="1">
+        <v>5.916</v>
+      </c>
+      <c r="D64" s="1">
+        <v>38.763</v>
+      </c>
+      <c r="E64" s="1">
+        <v>53.752</v>
+      </c>
+      <c r="F64" s="1">
+        <v>7.485</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="1">
+        <v>61.67</v>
+      </c>
+      <c r="C65" s="1">
+        <v>6.037</v>
+      </c>
+      <c r="D65" s="1">
+        <v>25.097</v>
+      </c>
+      <c r="E65" s="1">
+        <v>74.782</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="1">
+        <v>61.628</v>
+      </c>
+      <c r="C66" s="1">
+        <v>6.267</v>
+      </c>
+      <c r="D66" s="1">
+        <v>54.291</v>
+      </c>
+      <c r="E66" s="1">
+        <v>44.696</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1.013</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" s="1">
+        <v>61.611</v>
+      </c>
+      <c r="C67" s="1">
+        <v>5.721</v>
+      </c>
+      <c r="D67" s="1">
+        <v>3.567</v>
+      </c>
+      <c r="E67" s="1">
+        <v>89.782</v>
+      </c>
+      <c r="F67" s="1">
+        <v>6.651</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="1">
+        <v>61.536</v>
+      </c>
+      <c r="C68" s="1">
+        <v>6.257</v>
+      </c>
+      <c r="D68" s="1">
+        <v>45.118</v>
+      </c>
+      <c r="E68" s="1">
+        <v>53.987</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.895</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="1">
+        <v>61.527</v>
+      </c>
+      <c r="C69" s="1">
+        <v>6.002</v>
+      </c>
+      <c r="D69" s="1">
+        <v>7.676</v>
+      </c>
+      <c r="E69" s="1">
+        <v>91.448</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="1">
+        <v>61.507</v>
+      </c>
+      <c r="C70" s="1">
+        <v>5.804</v>
+      </c>
+      <c r="D70" s="1">
+        <v>38.164</v>
+      </c>
+      <c r="E70" s="1">
+        <v>55.994</v>
+      </c>
+      <c r="F70" s="1">
+        <v>5.843</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="1">
+        <v>61.45</v>
+      </c>
+      <c r="C71" s="1">
+        <v>5.772</v>
+      </c>
+      <c r="D71" s="1">
+        <v>44.169</v>
+      </c>
+      <c r="E71" s="1">
+        <v>44.074</v>
+      </c>
+      <c r="F71" s="1">
+        <v>11.757</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="1">
+        <v>61.402</v>
+      </c>
+      <c r="C72" s="1">
+        <v>6.051</v>
+      </c>
+      <c r="D72" s="1">
+        <v>55.701</v>
+      </c>
+      <c r="E72" s="1">
+        <v>42.372</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1.928</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" s="1">
+        <v>61.378</v>
+      </c>
+      <c r="C73" s="1">
+        <v>5.548</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.655</v>
+      </c>
+      <c r="E73" s="1">
+        <v>97.888</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1.457</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" s="1">
+        <v>61.374</v>
+      </c>
+      <c r="C74" s="1">
+        <v>6.146</v>
+      </c>
+      <c r="D74" s="1">
+        <v>13.398</v>
+      </c>
+      <c r="E74" s="1">
+        <v>86.276</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.326</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" s="1">
+        <v>61.342</v>
+      </c>
+      <c r="C75" s="1">
+        <v>6.085</v>
+      </c>
+      <c r="D75" s="1">
+        <v>33.796</v>
+      </c>
+      <c r="E75" s="1">
+        <v>64.794</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" s="1">
+        <v>61.333</v>
+      </c>
+      <c r="C76" s="1">
+        <v>5.925</v>
+      </c>
+      <c r="D76" s="1">
+        <v>38.732</v>
+      </c>
+      <c r="E76" s="1">
+        <v>61.192</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.076</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" s="1">
+        <v>61.328</v>
+      </c>
+      <c r="C77" s="1">
+        <v>6.055</v>
+      </c>
+      <c r="D77" s="1">
+        <v>79.454</v>
+      </c>
+      <c r="E77" s="1">
+        <v>12.729</v>
+      </c>
+      <c r="F77" s="1">
+        <v>7.817</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="1">
+        <v>61.308</v>
+      </c>
+      <c r="C78" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="D78" s="1">
+        <v>64.295</v>
+      </c>
+      <c r="E78" s="1">
+        <v>33.413</v>
+      </c>
+      <c r="F78" s="1">
+        <v>2.292</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="1">
+        <v>61.125</v>
+      </c>
+      <c r="C79" s="1">
+        <v>5.929</v>
+      </c>
+      <c r="D79" s="1">
+        <v>77.66</v>
+      </c>
+      <c r="E79" s="1">
+        <v>12.451</v>
+      </c>
+      <c r="F79" s="1">
+        <v>9.889</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" s="1">
+        <v>61.102</v>
+      </c>
+      <c r="C80" s="1">
+        <v>5.724</v>
+      </c>
+      <c r="D80" s="1">
+        <v>51.635</v>
+      </c>
+      <c r="E80" s="1">
+        <v>34.148</v>
+      </c>
+      <c r="F80" s="1">
+        <v>14.217</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" s="1">
+        <v>61.008</v>
+      </c>
+      <c r="C81" s="1">
+        <v>5.606</v>
+      </c>
+      <c r="D81" s="1">
+        <v>40.474</v>
+      </c>
+      <c r="E81" s="1">
+        <v>38.175</v>
+      </c>
+      <c r="F81" s="1">
+        <v>21.351</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" s="1">
+        <v>61.002</v>
+      </c>
+      <c r="C82" s="1">
+        <v>5.733</v>
+      </c>
+      <c r="D82" s="1">
+        <v>58.135</v>
+      </c>
+      <c r="E82" s="1">
+        <v>32.847</v>
+      </c>
+      <c r="F82" s="1">
+        <v>9.018</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="1">
+        <v>60.972</v>
+      </c>
+      <c r="C83" s="1">
+        <v>5.417</v>
+      </c>
+      <c r="D83" s="1">
+        <v>32.757</v>
+      </c>
+      <c r="E83" s="1">
+        <v>51.27</v>
+      </c>
+      <c r="F83" s="1">
+        <v>15.974</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="1">
+        <v>60.97</v>
+      </c>
+      <c r="C84" s="1">
+        <v>5.702</v>
+      </c>
+      <c r="D84" s="1">
+        <v>27.622</v>
+      </c>
+      <c r="E84" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>10.379</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" s="1">
+        <v>60.933</v>
+      </c>
+      <c r="C85" s="1">
+        <v>5.278</v>
+      </c>
+      <c r="D85" s="1">
+        <v>28.956</v>
+      </c>
+      <c r="E85" s="1">
+        <v>31.111</v>
+      </c>
+      <c r="F85" s="1">
+        <v>39.933</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" s="1">
+        <v>60.893</v>
+      </c>
+      <c r="C86" s="1">
+        <v>5.299</v>
+      </c>
+      <c r="D86" s="1">
+        <v>15.437</v>
+      </c>
+      <c r="E86" s="1">
+        <v>38.4</v>
+      </c>
+      <c r="F86" s="1">
+        <v>46.163</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87" s="1">
+        <v>60.737</v>
+      </c>
+      <c r="C87" s="1">
+        <v>5.598</v>
+      </c>
+      <c r="D87" s="1">
+        <v>7.32</v>
+      </c>
+      <c r="E87" s="1">
+        <v>86.685</v>
+      </c>
+      <c r="F87" s="1">
+        <v>5.995</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1">
+        <v>60.723</v>
+      </c>
+      <c r="C88" s="1">
+        <v>5.678</v>
+      </c>
+      <c r="D88" s="1">
+        <v>12.924</v>
+      </c>
+      <c r="E88" s="1">
+        <v>86.444</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0.632</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" s="1">
+        <v>60.712</v>
+      </c>
+      <c r="C89" s="1">
+        <v>5.47</v>
+      </c>
+      <c r="D89" s="1">
+        <v>14.742</v>
+      </c>
+      <c r="E89" s="1">
+        <v>62.262</v>
+      </c>
+      <c r="F89" s="1">
+        <v>22.996</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B90" s="1">
+        <v>60.7</v>
+      </c>
+      <c r="C90" s="1">
+        <v>5.736</v>
+      </c>
+      <c r="D90" s="1">
+        <v>6.022</v>
+      </c>
+      <c r="E90" s="1">
+        <v>93.969</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" s="1">
+        <v>60.683</v>
+      </c>
+      <c r="C91" s="1">
+        <v>5.532</v>
+      </c>
+      <c r="D91" s="1">
+        <v>33.509</v>
+      </c>
+      <c r="E91" s="1">
+        <v>47.286</v>
+      </c>
+      <c r="F91" s="1">
+        <v>19.204</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B92" s="1">
+        <v>60.639</v>
+      </c>
+      <c r="C92" s="1">
+        <v>5.108</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.019</v>
+      </c>
+      <c r="E92" s="1">
+        <v>62.939</v>
+      </c>
+      <c r="F92" s="1">
+        <v>37.042</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93" s="1">
+        <v>60.618</v>
+      </c>
+      <c r="C93" s="1">
+        <v>5.645</v>
+      </c>
+      <c r="D93" s="1">
+        <v>4.926</v>
+      </c>
+      <c r="E93" s="1">
+        <v>94.986</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0.088</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" s="1">
+        <v>60.551</v>
+      </c>
+      <c r="C94" s="1">
+        <v>5.578</v>
+      </c>
+      <c r="D94" s="1">
+        <v>44.335</v>
+      </c>
+      <c r="E94" s="1">
+        <v>32.228</v>
+      </c>
+      <c r="F94" s="1">
+        <v>23.437</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95" s="1">
+        <v>60.522</v>
+      </c>
+      <c r="C95" s="1">
+        <v>5.303</v>
+      </c>
+      <c r="D95" s="1">
+        <v>5.874</v>
+      </c>
+      <c r="E95" s="1">
+        <v>68.768</v>
+      </c>
+      <c r="F95" s="1">
+        <v>25.359</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B96" s="1">
+        <v>60.507</v>
+      </c>
+      <c r="C96" s="1">
+        <v>5.611</v>
+      </c>
+      <c r="D96" s="1">
+        <v>7.749</v>
+      </c>
+      <c r="E96" s="1">
+        <v>81.02</v>
+      </c>
+      <c r="F96" s="1">
+        <v>11.232</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" s="1">
+        <v>60.501</v>
+      </c>
+      <c r="C97" s="1">
+        <v>5.891</v>
+      </c>
+      <c r="D97" s="1">
+        <v>49.554</v>
+      </c>
+      <c r="E97" s="1">
+        <v>47.9</v>
+      </c>
+      <c r="F97" s="1">
+        <v>2.547</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98" s="1">
+        <v>60.485</v>
+      </c>
+      <c r="C98" s="1">
+        <v>6.023</v>
+      </c>
+      <c r="D98" s="1">
+        <v>27.656</v>
+      </c>
+      <c r="E98" s="1">
+        <v>72.316</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B99" s="1">
+        <v>60.33</v>
+      </c>
+      <c r="C99" s="1">
+        <v>5.668</v>
+      </c>
+      <c r="D99" s="1">
+        <v>17.863</v>
+      </c>
+      <c r="E99" s="1">
+        <v>81.718</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0.419</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100" s="1">
+        <v>60.292</v>
+      </c>
+      <c r="C100" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="D100" s="1">
+        <v>6.158</v>
+      </c>
+      <c r="E100" s="1">
+        <v>89.899</v>
+      </c>
+      <c r="F100" s="1">
+        <v>3.943</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B101" s="1">
+        <v>60.236</v>
+      </c>
+      <c r="C101" s="1">
+        <v>5.246</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.004</v>
+      </c>
+      <c r="E101" s="1">
+        <v>83.591</v>
+      </c>
+      <c r="F101" s="1">
+        <v>16.405</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B102" s="1">
+        <v>60.212</v>
+      </c>
+      <c r="C102" s="1">
+        <v>5.513</v>
+      </c>
+      <c r="D102" s="1">
+        <v>3.131</v>
+      </c>
+      <c r="E102" s="1">
+        <v>95.207</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1.662</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B103" s="1">
+        <v>60.159</v>
+      </c>
+      <c r="C103" s="1">
+        <v>5.645</v>
+      </c>
+      <c r="D103" s="1">
+        <v>2.998</v>
+      </c>
+      <c r="E103" s="1">
+        <v>96.657</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0.345</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B104" s="1">
+        <v>60.147</v>
+      </c>
+      <c r="C104" s="1">
+        <v>5.259</v>
+      </c>
+      <c r="D104" s="1">
+        <v>18.984</v>
+      </c>
+      <c r="E104" s="1">
+        <v>61.151</v>
+      </c>
+      <c r="F104" s="1">
+        <v>19.866</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B105" s="1">
+        <v>60.147</v>
+      </c>
+      <c r="C105" s="1">
+        <v>5.475</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="E105" s="1">
+        <v>94.865</v>
+      </c>
+      <c r="F105" s="1">
+        <v>3.565</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B106" s="1">
+        <v>60.07</v>
+      </c>
+      <c r="C106" s="1">
+        <v>5.659</v>
+      </c>
+      <c r="D106" s="1">
+        <v>37.413</v>
+      </c>
+      <c r="E106" s="1">
+        <v>60.238</v>
+      </c>
+      <c r="F106" s="1">
+        <v>2.349</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B107" s="1">
+        <v>60.023</v>
+      </c>
+      <c r="C107" s="1">
+        <v>5.648</v>
+      </c>
+      <c r="D107" s="1">
+        <v>2.305</v>
+      </c>
+      <c r="E107" s="1">
+        <v>93.562</v>
+      </c>
+      <c r="F107" s="1">
+        <v>4.133</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B108" s="1">
+        <v>60.016</v>
+      </c>
+      <c r="C108" s="1">
+        <v>5.109</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="E108" s="1">
+        <v>87.098</v>
+      </c>
+      <c r="F108" s="1">
+        <v>12.897</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B109" s="1">
+        <v>59.999</v>
+      </c>
+      <c r="C109" s="1">
+        <v>5.899</v>
+      </c>
+      <c r="D109" s="1">
+        <v>85.238</v>
+      </c>
+      <c r="E109" s="1">
+        <v>9.635</v>
+      </c>
+      <c r="F109" s="1">
+        <v>5.127</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B110" s="1">
+        <v>59.924</v>
+      </c>
+      <c r="C110" s="1">
+        <v>5.403</v>
+      </c>
+      <c r="D110" s="1">
+        <v>2.216</v>
+      </c>
+      <c r="E110" s="1">
+        <v>94.801</v>
+      </c>
+      <c r="F110" s="1">
+        <v>2.983</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B111" s="1">
+        <v>59.879</v>
+      </c>
+      <c r="C111" s="1">
+        <v>5.694</v>
+      </c>
+      <c r="D111" s="1">
+        <v>50.999</v>
+      </c>
+      <c r="E111" s="1">
+        <v>37.81</v>
+      </c>
+      <c r="F111" s="1">
+        <v>11.191</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B112" s="1">
+        <v>59.826</v>
+      </c>
+      <c r="C112" s="1">
+        <v>5.806</v>
+      </c>
+      <c r="D112" s="1">
+        <v>49.339</v>
+      </c>
+      <c r="E112" s="1">
+        <v>50.542</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0.119</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B113" s="1">
+        <v>59.802</v>
+      </c>
+      <c r="C113" s="1">
+        <v>5.748</v>
+      </c>
+      <c r="D113" s="1">
+        <v>44.448</v>
+      </c>
+      <c r="E113" s="1">
+        <v>54.986</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0.566</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B114" s="1">
+        <v>59.794</v>
+      </c>
+      <c r="C114" s="1">
+        <v>5.346</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1.097</v>
+      </c>
+      <c r="E114" s="1">
+        <v>80.14</v>
+      </c>
+      <c r="F114" s="1">
+        <v>18.763</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B115" s="1">
+        <v>59.758</v>
+      </c>
+      <c r="C115" s="1">
+        <v>5.479</v>
+      </c>
+      <c r="D115" s="1">
+        <v>5.931</v>
+      </c>
+      <c r="E115" s="1">
+        <v>92.463</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1.605</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" s="1">
+        <v>59.74</v>
+      </c>
+      <c r="C116" s="1">
+        <v>5.156</v>
+      </c>
+      <c r="D116" s="1">
+        <v>24.568</v>
+      </c>
+      <c r="E116" s="1">
+        <v>25.639</v>
+      </c>
+      <c r="F116" s="1">
+        <v>49.793</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B117" s="1">
+        <v>59.622</v>
+      </c>
+      <c r="C117" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="D117" s="1">
+        <v>45.002</v>
+      </c>
+      <c r="E117" s="1">
+        <v>53.135</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1.863</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B118" s="1">
+        <v>59.618</v>
+      </c>
+      <c r="C118" s="1">
+        <v>5.275</v>
+      </c>
+      <c r="D118" s="1">
+        <v>44.269</v>
+      </c>
+      <c r="E118" s="1">
+        <v>28.364</v>
+      </c>
+      <c r="F118" s="1">
+        <v>27.367</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" s="1">
+        <v>59.532</v>
+      </c>
+      <c r="C119" s="1">
+        <v>5.115</v>
+      </c>
+      <c r="D119" s="1">
+        <v>24.659</v>
+      </c>
+      <c r="E119" s="1">
+        <v>24.154</v>
+      </c>
+      <c r="F119" s="1">
+        <v>51.187</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B120" s="1">
+        <v>59.496</v>
+      </c>
+      <c r="C120" s="1">
+        <v>5.266</v>
+      </c>
+      <c r="D120" s="1">
+        <v>30.998</v>
+      </c>
+      <c r="E120" s="1">
+        <v>43.602</v>
+      </c>
+      <c r="F120" s="1">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B121" s="1">
+        <v>59.398</v>
+      </c>
+      <c r="C121" s="1">
+        <v>5.504</v>
+      </c>
+      <c r="D121" s="1">
+        <v>52.401</v>
+      </c>
+      <c r="E121" s="1">
+        <v>34.818</v>
+      </c>
+      <c r="F121" s="1">
+        <v>12.781</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B122" s="1">
+        <v>59.382</v>
+      </c>
+      <c r="C122" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="D122" s="1">
+        <v>2.286</v>
+      </c>
+      <c r="E122" s="1">
+        <v>84.85</v>
+      </c>
+      <c r="F122" s="1">
+        <v>12.864</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B123" s="1">
+        <v>59.37</v>
+      </c>
+      <c r="C123" s="1">
+        <v>5.933</v>
+      </c>
+      <c r="D123" s="1">
+        <v>90.7</v>
+      </c>
+      <c r="E123" s="1">
+        <v>2.229</v>
+      </c>
+      <c r="F123" s="1">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B124" s="1">
+        <v>59.321</v>
+      </c>
+      <c r="C124" s="1">
+        <v>5.016</v>
+      </c>
+      <c r="D124" s="1">
+        <v>20.545</v>
+      </c>
+      <c r="E124" s="1">
+        <v>40.604</v>
+      </c>
+      <c r="F124" s="1">
+        <v>38.85</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B125" s="1">
+        <v>59.286</v>
+      </c>
+      <c r="C125" s="1">
+        <v>5.369</v>
+      </c>
+      <c r="D125" s="1">
+        <v>7.897</v>
+      </c>
+      <c r="E125" s="1">
+        <v>80.522</v>
+      </c>
+      <c r="F125" s="1">
+        <v>11.581</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B126" s="1">
+        <v>59.262</v>
+      </c>
+      <c r="C126" s="1">
+        <v>5.031</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="E126" s="1">
+        <v>76.431</v>
+      </c>
+      <c r="F126" s="1">
+        <v>23.568</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B127" s="1">
+        <v>59.249</v>
+      </c>
+      <c r="C127" s="1">
+        <v>5.241</v>
+      </c>
+      <c r="D127" s="1">
+        <v>27.044</v>
+      </c>
+      <c r="E127" s="1">
+        <v>45.487</v>
+      </c>
+      <c r="F127" s="1">
+        <v>27.469</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="1">
+        <v>59.188</v>
+      </c>
+      <c r="C128" s="1">
+        <v>4.956</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0.003</v>
+      </c>
+      <c r="E128" s="1">
+        <v>56.973</v>
+      </c>
+      <c r="F128" s="1">
+        <v>43.024</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B129" s="1">
+        <v>59.188</v>
+      </c>
+      <c r="C129" s="1">
+        <v>5.247</v>
+      </c>
+      <c r="D129" s="1">
+        <v>2.268</v>
+      </c>
+      <c r="E129" s="1">
+        <v>91.225</v>
+      </c>
+      <c r="F129" s="1">
+        <v>6.507</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B130" s="1">
+        <v>59.075</v>
+      </c>
+      <c r="C130" s="1">
+        <v>5.502</v>
+      </c>
+      <c r="D130" s="1">
+        <v>49.764</v>
+      </c>
+      <c r="E130" s="1">
+        <v>42.139</v>
+      </c>
+      <c r="F130" s="1">
+        <v>8.097</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" s="1">
+        <v>59.008</v>
+      </c>
+      <c r="C131" s="1">
+        <v>5.216</v>
+      </c>
+      <c r="D131" s="1">
+        <v>20.845</v>
+      </c>
+      <c r="E131" s="1">
+        <v>43.181</v>
+      </c>
+      <c r="F131" s="1">
+        <v>35.974</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B132" s="1">
+        <v>58.945</v>
+      </c>
+      <c r="C132" s="1">
+        <v>5.496</v>
+      </c>
+      <c r="D132" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="E132" s="1">
+        <v>33.683</v>
+      </c>
+      <c r="F132" s="1">
+        <v>11.017</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B133" s="1">
+        <v>58.944</v>
+      </c>
+      <c r="C133" s="1">
+        <v>5.707</v>
+      </c>
+      <c r="D133" s="1">
+        <v>51.383</v>
+      </c>
+      <c r="E133" s="1">
+        <v>47.996</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B134" s="1">
+        <v>58.918</v>
+      </c>
+      <c r="C134" s="1">
+        <v>5.069</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0.023</v>
+      </c>
+      <c r="E134" s="1">
+        <v>70.866</v>
+      </c>
+      <c r="F134" s="1">
+        <v>29.111</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B135" s="1">
+        <v>58.918</v>
+      </c>
+      <c r="C135" s="1">
+        <v>5.293</v>
+      </c>
+      <c r="D135" s="1">
+        <v>15.089</v>
+      </c>
+      <c r="E135" s="1">
+        <v>70.445</v>
+      </c>
+      <c r="F135" s="1">
+        <v>14.467</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B136" s="1">
+        <v>58.903</v>
+      </c>
+      <c r="C136" s="1">
+        <v>5.354</v>
+      </c>
+      <c r="D136" s="1">
+        <v>46.811</v>
+      </c>
+      <c r="E136" s="1">
+        <v>40.888</v>
+      </c>
+      <c r="F136" s="1">
+        <v>12.301</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B137" s="1">
+        <v>58.86</v>
+      </c>
+      <c r="C137" s="1">
+        <v>5.182</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="E137" s="1">
+        <v>93.403</v>
+      </c>
+      <c r="F137" s="1">
+        <v>6.483</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B138" s="1">
+        <v>58.813</v>
+      </c>
+      <c r="C138" s="1">
+        <v>5.161</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0.565</v>
+      </c>
+      <c r="E138" s="1">
+        <v>78.093</v>
+      </c>
+      <c r="F138" s="1">
+        <v>21.342</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B139" s="1">
+        <v>58.653</v>
+      </c>
+      <c r="C139" s="1">
+        <v>5.785</v>
+      </c>
+      <c r="D139" s="1">
+        <v>74.863</v>
+      </c>
+      <c r="E139" s="1">
+        <v>23.939</v>
+      </c>
+      <c r="F139" s="1">
+        <v>1.199</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B140" s="1">
+        <v>58.65</v>
+      </c>
+      <c r="C140" s="1">
+        <v>5.385</v>
+      </c>
+      <c r="D140" s="1">
+        <v>51.651</v>
+      </c>
+      <c r="E140" s="1">
+        <v>42.314</v>
+      </c>
+      <c r="F140" s="1">
+        <v>6.035</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B141" s="1">
+        <v>58.622</v>
+      </c>
+      <c r="C141" s="1">
+        <v>5.163</v>
+      </c>
+      <c r="D141" s="1">
+        <v>18.518</v>
+      </c>
+      <c r="E141" s="1">
+        <v>48.729</v>
+      </c>
+      <c r="F141" s="1">
+        <v>32.752</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B142" s="1">
+        <v>58.552</v>
+      </c>
+      <c r="C142" s="1">
+        <v>5.278</v>
+      </c>
+      <c r="D142" s="1">
+        <v>22.05</v>
+      </c>
+      <c r="E142" s="1">
+        <v>68.06</v>
+      </c>
+      <c r="F142" s="1">
+        <v>9.89</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B143" s="1">
+        <v>58.549</v>
+      </c>
+      <c r="C143" s="1">
+        <v>5.215</v>
+      </c>
+      <c r="D143" s="1">
+        <v>7.154</v>
+      </c>
+      <c r="E143" s="1">
+        <v>84.877</v>
+      </c>
+      <c r="F143" s="1">
+        <v>7.968</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B144" s="1">
+        <v>58.491</v>
+      </c>
+      <c r="C144" s="1">
+        <v>4.957</v>
+      </c>
+      <c r="D144" s="1">
+        <v>0.026</v>
+      </c>
+      <c r="E144" s="1">
+        <v>76.689</v>
+      </c>
+      <c r="F144" s="1">
+        <v>23.284</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B145" s="1">
+        <v>58.399</v>
+      </c>
+      <c r="C145" s="1">
+        <v>5.288</v>
+      </c>
+      <c r="D145" s="1">
+        <v>49.243</v>
+      </c>
+      <c r="E145" s="1">
+        <v>27.081</v>
+      </c>
+      <c r="F145" s="1">
+        <v>23.676</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B146" s="1">
+        <v>58.275</v>
+      </c>
+      <c r="C146" s="1">
+        <v>5.063</v>
+      </c>
+      <c r="D146" s="1">
+        <v>9.028</v>
+      </c>
+      <c r="E146" s="1">
+        <v>66.871</v>
+      </c>
+      <c r="F146" s="1">
+        <v>24.101</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" s="1">
+        <v>58.252</v>
+      </c>
+      <c r="C147" s="1">
+        <v>4.961</v>
+      </c>
+      <c r="D147" s="1">
+        <v>0.024</v>
+      </c>
+      <c r="E147" s="1">
+        <v>71.571</v>
+      </c>
+      <c r="F147" s="1">
+        <v>28.405</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B148" s="1">
+        <v>58.243</v>
+      </c>
+      <c r="C148" s="1">
+        <v>5.169</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="E148" s="1">
+        <v>78.364</v>
+      </c>
+      <c r="F148" s="1">
+        <v>21.246</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B149" s="1">
+        <v>58.093</v>
+      </c>
+      <c r="C149" s="1">
+        <v>5.321</v>
+      </c>
+      <c r="D149" s="1">
+        <v>52.735</v>
+      </c>
+      <c r="E149" s="1">
+        <v>42.308</v>
+      </c>
+      <c r="F149" s="1">
+        <v>4.957</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B150" s="1">
+        <v>58.057</v>
+      </c>
+      <c r="C150" s="1">
+        <v>5.216</v>
+      </c>
+      <c r="D150" s="1">
+        <v>46.788</v>
+      </c>
+      <c r="E150" s="1">
+        <v>40.404</v>
+      </c>
+      <c r="F150" s="1">
+        <v>12.808</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151" s="1">
+        <v>57.843</v>
+      </c>
+      <c r="C151" s="1">
+        <v>5.045</v>
+      </c>
+      <c r="D151" s="1">
+        <v>26.183</v>
+      </c>
+      <c r="E151" s="1">
+        <v>49.124</v>
+      </c>
+      <c r="F151" s="1">
+        <v>24.693</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" s="1">
+        <v>57.826</v>
+      </c>
+      <c r="C152" s="1">
+        <v>4.943</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0.527</v>
+      </c>
+      <c r="E152" s="1">
+        <v>74.923</v>
+      </c>
+      <c r="F152" s="1">
+        <v>24.55</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B153" s="1">
+        <v>57.451</v>
+      </c>
+      <c r="C153" s="1">
+        <v>4.987</v>
+      </c>
+      <c r="D153" s="1">
+        <v>3.075</v>
+      </c>
+      <c r="E153" s="1">
+        <v>79.936</v>
+      </c>
+      <c r="F153" s="1">
+        <v>16.989</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154" s="1">
+        <v>57.421</v>
+      </c>
+      <c r="C154" s="1">
+        <v>5.153</v>
+      </c>
+      <c r="D154" s="1">
+        <v>43.273</v>
+      </c>
+      <c r="E154" s="1">
+        <v>44.184</v>
+      </c>
+      <c r="F154" s="1">
+        <v>12.543</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" s="1">
+        <v>57.407</v>
+      </c>
+      <c r="C155" s="1">
+        <v>5.064</v>
+      </c>
+      <c r="D155" s="1">
+        <v>29.808</v>
+      </c>
+      <c r="E155" s="1">
+        <v>44.354</v>
+      </c>
+      <c r="F155" s="1">
+        <v>25.838</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B156" s="1">
+        <v>57.343</v>
+      </c>
+      <c r="C156" s="1">
+        <v>5.512</v>
+      </c>
+      <c r="D156" s="1">
+        <v>36.594</v>
+      </c>
+      <c r="E156" s="1">
+        <v>62.468</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0.939</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="1">
+        <v>57.298</v>
+      </c>
+      <c r="C157" s="1">
+        <v>4.89</v>
+      </c>
+      <c r="D157" s="1">
+        <v>11.195</v>
+      </c>
+      <c r="E157" s="1">
+        <v>56.865</v>
+      </c>
+      <c r="F157" s="1">
+        <v>31.939</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" s="1">
+        <v>57.249</v>
+      </c>
+      <c r="C158" s="1">
+        <v>5.322</v>
+      </c>
+      <c r="D158" s="1">
+        <v>38.958</v>
+      </c>
+      <c r="E158" s="1">
+        <v>48.177</v>
+      </c>
+      <c r="F158" s="1">
+        <v>12.866</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="1">
+        <v>57.158</v>
+      </c>
+      <c r="C159" s="1">
+        <v>5.11</v>
+      </c>
+      <c r="D159" s="1">
+        <v>49.439</v>
+      </c>
+      <c r="E159" s="1">
+        <v>30.948</v>
+      </c>
+      <c r="F159" s="1">
+        <v>19.613</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" s="1">
+        <v>57.117</v>
+      </c>
+      <c r="C160" s="1">
+        <v>5.229</v>
+      </c>
+      <c r="D160" s="1">
+        <v>39.725</v>
+      </c>
+      <c r="E160" s="1">
+        <v>51.675</v>
+      </c>
+      <c r="F160" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" s="1">
+        <v>56.978</v>
+      </c>
+      <c r="C161" s="1">
+        <v>5.155</v>
+      </c>
+      <c r="D161" s="1">
+        <v>32.211</v>
+      </c>
+      <c r="E161" s="1">
+        <v>65.808</v>
+      </c>
+      <c r="F161" s="1">
+        <v>1.981</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B162" s="1">
+        <v>56.865</v>
+      </c>
+      <c r="C162" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="D162" s="1">
+        <v>4.867</v>
+      </c>
+      <c r="E162" s="1">
+        <v>73.081</v>
+      </c>
+      <c r="F162" s="1">
+        <v>22.051</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" s="1">
+        <v>55.986</v>
+      </c>
+      <c r="C163" s="1">
+        <v>4.858</v>
+      </c>
+      <c r="D163" s="1">
+        <v>30.013</v>
+      </c>
+      <c r="E163" s="1">
+        <v>43.96</v>
+      </c>
+      <c r="F163" s="1">
+        <v>26.027</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="1">
+        <v>55.858</v>
+      </c>
+      <c r="C164" s="1">
+        <v>4.919</v>
+      </c>
+      <c r="D164" s="1">
+        <v>19.17</v>
+      </c>
+      <c r="E164" s="1">
+        <v>56.27</v>
+      </c>
+      <c r="F164" s="1">
+        <v>24.56</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" s="2">
+        <v>0.6073</v>
+      </c>
+      <c r="C166" s="1">
+        <v>5.61</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0.28</v>
+      </c>
+      <c r="E166" s="2">
+        <v>0.5825</v>
+      </c>
+      <c r="F166" s="2">
+        <v>0.1375</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1">
+        <v>69.201</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6.775</v>
+      </c>
+      <c r="D2" s="1">
+        <v>17.547</v>
+      </c>
+      <c r="E2" s="1">
+        <v>59.157</v>
+      </c>
+      <c r="F2" s="1">
+        <v>23.295</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="1">
+        <v>66.963</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.368</v>
+      </c>
+      <c r="D3" s="1">
+        <v>36.969</v>
+      </c>
+      <c r="E3" s="1">
+        <v>37.677</v>
+      </c>
+      <c r="F3" s="1">
+        <v>25.354</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1">
+        <v>65.372</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.937</v>
+      </c>
+      <c r="D4" s="1">
+        <v>21.883</v>
+      </c>
+      <c r="E4" s="1">
+        <v>53.907</v>
+      </c>
+      <c r="F4" s="1">
+        <v>24.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="1">
+        <v>64.366</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.661</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45.441</v>
+      </c>
+      <c r="E5" s="1">
+        <v>29.852</v>
+      </c>
+      <c r="F5" s="1">
+        <v>24.707</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1">
+        <v>64.113</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.496</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45.016</v>
+      </c>
+      <c r="E6" s="1">
+        <v>25.962</v>
+      </c>
+      <c r="F6" s="1">
+        <v>29.022</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1">
+        <v>63.054</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.679</v>
+      </c>
+      <c r="D7" s="1">
+        <v>29.98</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43.935</v>
+      </c>
+      <c r="F7" s="1">
+        <v>26.085</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1">
+        <v>62.543</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="D8" s="1">
+        <v>25.746</v>
+      </c>
+      <c r="E8" s="1">
+        <v>48.361</v>
+      </c>
+      <c r="F8" s="1">
+        <v>25.893</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1">
+        <v>62.509</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.041</v>
+      </c>
+      <c r="D9" s="1">
+        <v>19.873</v>
+      </c>
+      <c r="E9" s="1">
+        <v>54.806</v>
+      </c>
+      <c r="F9" s="1">
+        <v>25.321</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="1">
+        <v>62.424</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6.251</v>
+      </c>
+      <c r="D10" s="1">
+        <v>38.508</v>
+      </c>
+      <c r="E10" s="1">
+        <v>34.107</v>
+      </c>
+      <c r="F10" s="1">
+        <v>27.385</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1">
+        <v>62.379</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.637</v>
+      </c>
+      <c r="D11" s="1">
+        <v>17.881</v>
+      </c>
+      <c r="E11" s="1">
+        <v>59.831</v>
+      </c>
+      <c r="F11" s="1">
+        <v>22.288</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="1">
+        <v>61.966</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6.783</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44.571</v>
+      </c>
+      <c r="E12" s="1">
+        <v>28.225</v>
+      </c>
+      <c r="F12" s="1">
+        <v>27.205</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="1">
+        <v>61.337</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6.36</v>
+      </c>
+      <c r="D13" s="1">
+        <v>14.759</v>
+      </c>
+      <c r="E13" s="1">
+        <v>58.775</v>
+      </c>
+      <c r="F13" s="1">
+        <v>26.466</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1">
+        <v>61.204</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6.102</v>
+      </c>
+      <c r="D14" s="1">
+        <v>33.543</v>
+      </c>
+      <c r="E14" s="1">
+        <v>42.119</v>
+      </c>
+      <c r="F14" s="1">
+        <v>24.338</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="1">
+        <v>60.055</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5.715</v>
+      </c>
+      <c r="D15" s="1">
+        <v>36.685</v>
+      </c>
+      <c r="E15" s="1">
+        <v>37.971</v>
+      </c>
+      <c r="F15" s="1">
+        <v>25.345</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="1">
+        <v>59.894</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6.215</v>
+      </c>
+      <c r="D16" s="1">
+        <v>42.222</v>
+      </c>
+      <c r="E16" s="1">
+        <v>33.73</v>
+      </c>
+      <c r="F16" s="1">
+        <v>24.048</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1">
+        <v>59.688</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4.885</v>
+      </c>
+      <c r="D17" s="1">
+        <v>32.454</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45.908</v>
+      </c>
+      <c r="F17" s="1">
+        <v>21.637</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1">
+        <v>59.683</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4.488</v>
+      </c>
+      <c r="D18" s="1">
+        <v>31.806</v>
+      </c>
+      <c r="E18" s="1">
+        <v>42.801</v>
+      </c>
+      <c r="F18" s="1">
+        <v>25.393</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="1">
+        <v>59.113</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7.185</v>
+      </c>
+      <c r="D19" s="1">
+        <v>19.087</v>
+      </c>
+      <c r="E19" s="1">
+        <v>61.044</v>
+      </c>
+      <c r="F19" s="1">
+        <v>19.869</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1">
+        <v>58.784</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4.354</v>
+      </c>
+      <c r="D20" s="1">
+        <v>34.398</v>
+      </c>
+      <c r="E20" s="1">
+        <v>42.779</v>
+      </c>
+      <c r="F20" s="1">
+        <v>22.823</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="1">
+        <v>58.377</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="D21" s="1">
+        <v>36.05</v>
+      </c>
+      <c r="E21" s="1">
+        <v>38.998</v>
+      </c>
+      <c r="F21" s="1">
+        <v>24.952</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>57.799</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.208</v>
+      </c>
+      <c r="D22" s="1">
+        <v>26.988</v>
+      </c>
+      <c r="E22" s="1">
+        <v>48.383</v>
+      </c>
+      <c r="F22" s="1">
+        <v>24.629</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1">
+        <v>57.322</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.688</v>
+      </c>
+      <c r="D23" s="1">
+        <v>38.941</v>
+      </c>
+      <c r="E23" s="1">
+        <v>33.38</v>
+      </c>
+      <c r="F23" s="1">
+        <v>27.679</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="1">
+        <v>56.936</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4.166</v>
+      </c>
+      <c r="D24" s="1">
+        <v>21.272</v>
+      </c>
+      <c r="E24" s="1">
+        <v>53.717</v>
+      </c>
+      <c r="F24" s="1">
+        <v>25.011</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="1">
+        <v>56.572</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4.421</v>
+      </c>
+      <c r="D25" s="1">
+        <v>28.847</v>
+      </c>
+      <c r="E25" s="1">
+        <v>48.595</v>
+      </c>
+      <c r="F25" s="1">
+        <v>22.558</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="1">
+        <v>56.23</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5.944</v>
+      </c>
+      <c r="D26" s="1">
+        <v>26.093</v>
+      </c>
+      <c r="E26" s="1">
+        <v>53.035</v>
+      </c>
+      <c r="F26" s="1">
+        <v>20.873</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1">
+        <v>56.074</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6.146</v>
+      </c>
+      <c r="D27" s="1">
+        <v>35.124</v>
+      </c>
+      <c r="E27" s="1">
+        <v>42.311</v>
+      </c>
+      <c r="F27" s="1">
+        <v>22.565</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="1">
+        <v>55.811</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4.402</v>
+      </c>
+      <c r="D28" s="1">
+        <v>34.835</v>
+      </c>
+      <c r="E28" s="1">
+        <v>41.555</v>
+      </c>
+      <c r="F28" s="1">
+        <v>23.61</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="1">
+        <v>55.758</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4.011</v>
+      </c>
+      <c r="D29" s="1">
+        <v>37.93</v>
+      </c>
+      <c r="E29" s="1">
+        <v>39.582</v>
+      </c>
+      <c r="F29" s="1">
+        <v>22.488</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="1">
+        <v>55.745</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4.065</v>
+      </c>
+      <c r="D30" s="1">
+        <v>21.749</v>
+      </c>
+      <c r="E30" s="1">
+        <v>52.675</v>
+      </c>
+      <c r="F30" s="1">
+        <v>25.576</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="1">
+        <v>55.462</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4.473</v>
+      </c>
+      <c r="D31" s="1">
+        <v>38.188</v>
+      </c>
+      <c r="E31" s="1">
+        <v>37.194</v>
+      </c>
+      <c r="F31" s="1">
+        <v>24.618</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="1">
+        <v>55.15</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4.806</v>
+      </c>
+      <c r="D32" s="1">
+        <v>35.484</v>
+      </c>
+      <c r="E32" s="1">
+        <v>41.757</v>
+      </c>
+      <c r="F32" s="1">
+        <v>22.759</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="1">
+        <v>54.702</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4.276</v>
+      </c>
+      <c r="D33" s="1">
+        <v>36.092</v>
+      </c>
+      <c r="E33" s="1">
+        <v>40.008</v>
+      </c>
+      <c r="F33" s="1">
+        <v>23.901</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="1">
+        <v>54.266</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3.887</v>
+      </c>
+      <c r="D34" s="1">
+        <v>36.425</v>
+      </c>
+      <c r="E34" s="1">
+        <v>40.099</v>
+      </c>
+      <c r="F34" s="1">
+        <v>23.476</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="1">
+        <v>54.151</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4.11</v>
+      </c>
+      <c r="D35" s="1">
+        <v>28.412</v>
+      </c>
+      <c r="E35" s="1">
+        <v>46.92</v>
+      </c>
+      <c r="F35" s="1">
+        <v>24.668</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1">
+        <v>54.078</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4.852</v>
+      </c>
+      <c r="D36" s="1">
+        <v>29.815</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45.84</v>
+      </c>
+      <c r="F36" s="1">
+        <v>24.345</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="1">
+        <v>53.44</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3.383</v>
+      </c>
+      <c r="D37" s="1">
+        <v>14.724</v>
+      </c>
+      <c r="E37" s="1">
+        <v>62.663</v>
+      </c>
+      <c r="F37" s="1">
+        <v>22.613</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="1">
+        <v>52.913</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3.251</v>
+      </c>
+      <c r="D38" s="1">
+        <v>11.845</v>
+      </c>
+      <c r="E38" s="1">
+        <v>68.53</v>
+      </c>
+      <c r="F38" s="1">
+        <v>19.625</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="1">
+        <v>52.727</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6.119</v>
+      </c>
+      <c r="D39" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="E39" s="1">
+        <v>64.256</v>
+      </c>
+      <c r="F39" s="1">
+        <v>20.144</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="1">
+        <v>52.659</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4.853</v>
+      </c>
+      <c r="D40" s="1">
+        <v>38.451</v>
+      </c>
+      <c r="E40" s="1">
+        <v>39.237</v>
+      </c>
+      <c r="F40" s="1">
+        <v>22.311</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="1">
+        <v>52.38</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5.951</v>
+      </c>
+      <c r="D41" s="1">
+        <v>29.025</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45.294</v>
+      </c>
+      <c r="F41" s="1">
+        <v>25.681</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="1">
+        <v>52.315</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3.512</v>
+      </c>
+      <c r="D42" s="1">
+        <v>13.46</v>
+      </c>
+      <c r="E42" s="1">
+        <v>63.702</v>
+      </c>
+      <c r="F42" s="1">
+        <v>22.838</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1">
+        <v>52.26</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4.076</v>
+      </c>
+      <c r="D43" s="1">
+        <v>19.203</v>
+      </c>
+      <c r="E43" s="1">
+        <v>58.865</v>
+      </c>
+      <c r="F43" s="1">
+        <v>21.931</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="1">
+        <v>52.184</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3.798</v>
+      </c>
+      <c r="D44" s="1">
+        <v>36.171</v>
+      </c>
+      <c r="E44" s="1">
+        <v>40.939</v>
+      </c>
+      <c r="F44" s="1">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="1">
+        <v>51.997</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3.837</v>
+      </c>
+      <c r="D45" s="1">
+        <v>20.543</v>
+      </c>
+      <c r="E45" s="1">
+        <v>51.713</v>
+      </c>
+      <c r="F45" s="1">
+        <v>27.744</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="1">
+        <v>51.958</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3.638</v>
+      </c>
+      <c r="D46" s="1">
+        <v>10.669</v>
+      </c>
+      <c r="E46" s="1">
+        <v>68.538</v>
+      </c>
+      <c r="F46" s="1">
+        <v>20.793</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="1">
+        <v>51.906</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="D47" s="1">
+        <v>11.346</v>
+      </c>
+      <c r="E47" s="1">
+        <v>66.364</v>
+      </c>
+      <c r="F47" s="1">
+        <v>22.29</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1">
+        <v>51.776</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2.932</v>
+      </c>
+      <c r="D48" s="1">
+        <v>17.287</v>
+      </c>
+      <c r="E48" s="1">
+        <v>57.736</v>
+      </c>
+      <c r="F48" s="1">
+        <v>24.977</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="1">
+        <v>51.754</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3.777</v>
+      </c>
+      <c r="D49" s="1">
+        <v>19.295</v>
+      </c>
+      <c r="E49" s="1">
+        <v>58.62</v>
+      </c>
+      <c r="F49" s="1">
+        <v>22.085</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>51.346</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3.411</v>
+      </c>
+      <c r="D50" s="1">
+        <v>21.846</v>
+      </c>
+      <c r="E50" s="1">
+        <v>53.957</v>
+      </c>
+      <c r="F50" s="1">
+        <v>24.197</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="1">
+        <v>51.333</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="D51" s="1">
+        <v>20.209</v>
+      </c>
+      <c r="E51" s="1">
+        <v>58.526</v>
+      </c>
+      <c r="F51" s="1">
+        <v>21.265</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="1">
+        <v>51.142</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3.415</v>
+      </c>
+      <c r="D52" s="1">
+        <v>19.045</v>
+      </c>
+      <c r="E52" s="1">
+        <v>62.1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>18.855</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="1">
+        <v>51.119</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1.921</v>
+      </c>
+      <c r="D53" s="1">
+        <v>35.018</v>
+      </c>
+      <c r="E53" s="1">
+        <v>39.265</v>
+      </c>
+      <c r="F53" s="1">
+        <v>25.718</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="1">
+        <v>51.105</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="D54" s="1">
+        <v>6.695</v>
+      </c>
+      <c r="E54" s="1">
+        <v>77.723</v>
+      </c>
+      <c r="F54" s="1">
+        <v>15.582</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="1">
+        <v>51.097</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3.541</v>
+      </c>
+      <c r="D55" s="1">
+        <v>17.259</v>
+      </c>
+      <c r="E55" s="1">
+        <v>63.712</v>
+      </c>
+      <c r="F55" s="1">
+        <v>19.029</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="1">
+        <v>51.022</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2.801</v>
+      </c>
+      <c r="D56" s="1">
+        <v>14.711</v>
+      </c>
+      <c r="E56" s="1">
+        <v>56.206</v>
+      </c>
+      <c r="F56" s="1">
+        <v>29.083</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="1">
+        <v>51.013</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3.838</v>
+      </c>
+      <c r="D57" s="1">
+        <v>39.902</v>
+      </c>
+      <c r="E57" s="1">
+        <v>35.903</v>
+      </c>
+      <c r="F57" s="1">
+        <v>24.195</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="1">
+        <v>50.756</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3.056</v>
+      </c>
+      <c r="D58" s="1">
+        <v>18.82</v>
+      </c>
+      <c r="E58" s="1">
+        <v>53.948</v>
+      </c>
+      <c r="F58" s="1">
+        <v>27.232</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="1">
+        <v>50.706</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2.62</v>
+      </c>
+      <c r="D59" s="1">
+        <v>28.186</v>
+      </c>
+      <c r="E59" s="1">
+        <v>41.637</v>
+      </c>
+      <c r="F59" s="1">
+        <v>30.177</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="1">
+        <v>50.696</v>
+      </c>
+      <c r="C60" s="1">
+        <v>5.045</v>
+      </c>
+      <c r="D60" s="1">
+        <v>46.842</v>
+      </c>
+      <c r="E60" s="1">
+        <v>19.788</v>
+      </c>
+      <c r="F60" s="1">
+        <v>33.37</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="1">
+        <v>50.696</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2.557</v>
+      </c>
+      <c r="D61" s="1">
+        <v>16.724</v>
+      </c>
+      <c r="E61" s="1">
+        <v>59.895</v>
+      </c>
+      <c r="F61" s="1">
+        <v>23.38</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="1">
+        <v>50.674</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3.839</v>
+      </c>
+      <c r="D62" s="1">
+        <v>28.802</v>
+      </c>
+      <c r="E62" s="1">
+        <v>46.231</v>
+      </c>
+      <c r="F62" s="1">
+        <v>24.967</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="1">
+        <v>50.396</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3.273</v>
+      </c>
+      <c r="D63" s="1">
+        <v>23.961</v>
+      </c>
+      <c r="E63" s="1">
+        <v>49.663</v>
+      </c>
+      <c r="F63" s="1">
+        <v>26.376</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="1">
+        <v>50.356</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4.194</v>
+      </c>
+      <c r="D64" s="1">
+        <v>34.483</v>
+      </c>
+      <c r="E64" s="1">
+        <v>42.492</v>
+      </c>
+      <c r="F64" s="1">
+        <v>23.025</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="1">
+        <v>50.337</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3.086</v>
+      </c>
+      <c r="D65" s="1">
+        <v>19.116</v>
+      </c>
+      <c r="E65" s="1">
+        <v>60.581</v>
+      </c>
+      <c r="F65" s="1">
+        <v>20.304</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="1">
+        <v>50.185</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2.796</v>
+      </c>
+      <c r="D66" s="1">
+        <v>21.611</v>
+      </c>
+      <c r="E66" s="1">
+        <v>51.019</v>
+      </c>
+      <c r="F66" s="1">
+        <v>27.371</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="1">
+        <v>50.185</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2.702</v>
+      </c>
+      <c r="D67" s="1">
+        <v>18.277</v>
+      </c>
+      <c r="E67" s="1">
+        <v>50.299</v>
+      </c>
+      <c r="F67" s="1">
+        <v>31.424</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="1">
+        <v>50.095</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2.281</v>
+      </c>
+      <c r="D68" s="1">
+        <v>17.016</v>
+      </c>
+      <c r="E68" s="1">
+        <v>58.271</v>
+      </c>
+      <c r="F68" s="1">
+        <v>24.713</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="1">
+        <v>50.023</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2.82</v>
+      </c>
+      <c r="D69" s="1">
+        <v>19.286</v>
+      </c>
+      <c r="E69" s="1">
+        <v>61.096</v>
+      </c>
+      <c r="F69" s="1">
+        <v>19.618</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="1">
+        <v>49.896</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2.92</v>
+      </c>
+      <c r="D70" s="1">
+        <v>22.308</v>
+      </c>
+      <c r="E70" s="1">
+        <v>55.33</v>
+      </c>
+      <c r="F70" s="1">
+        <v>22.362</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="1">
+        <v>49.845</v>
+      </c>
+      <c r="C71" s="1">
+        <v>4.887</v>
+      </c>
+      <c r="D71" s="1">
+        <v>30.316</v>
+      </c>
+      <c r="E71" s="1">
+        <v>45.625</v>
+      </c>
+      <c r="F71" s="1">
+        <v>24.059</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="1">
+        <v>49.823</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3.874</v>
+      </c>
+      <c r="D72" s="1">
+        <v>46.696</v>
+      </c>
+      <c r="E72" s="1">
+        <v>26.077</v>
+      </c>
+      <c r="F72" s="1">
+        <v>27.227</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="1">
+        <v>49.805</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2.841</v>
+      </c>
+      <c r="D73" s="1">
+        <v>22.668</v>
+      </c>
+      <c r="E73" s="1">
+        <v>46.109</v>
+      </c>
+      <c r="F73" s="1">
+        <v>31.224</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="1">
+        <v>49.642</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3.007</v>
+      </c>
+      <c r="D74" s="1">
+        <v>23.043</v>
+      </c>
+      <c r="E74" s="1">
+        <v>51.481</v>
+      </c>
+      <c r="F74" s="1">
+        <v>25.476</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="1">
+        <v>49.596</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3.433</v>
+      </c>
+      <c r="D75" s="1">
+        <v>17.619</v>
+      </c>
+      <c r="E75" s="1">
+        <v>65.352</v>
+      </c>
+      <c r="F75" s="1">
+        <v>17.029</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" s="1">
+        <v>49.517</v>
+      </c>
+      <c r="C76" s="1">
+        <v>5.103</v>
+      </c>
+      <c r="D76" s="1">
+        <v>27.406</v>
+      </c>
+      <c r="E76" s="1">
+        <v>51.221</v>
+      </c>
+      <c r="F76" s="1">
+        <v>21.373</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="1">
+        <v>49.496</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2.937</v>
+      </c>
+      <c r="D77" s="1">
+        <v>15.533</v>
+      </c>
+      <c r="E77" s="1">
+        <v>58.347</v>
+      </c>
+      <c r="F77" s="1">
+        <v>26.12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" s="1">
+        <v>49.409</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2.833</v>
+      </c>
+      <c r="D78" s="1">
+        <v>8.669</v>
+      </c>
+      <c r="E78" s="1">
+        <v>68.669</v>
+      </c>
+      <c r="F78" s="1">
+        <v>22.661</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="1">
+        <v>49.404</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3.255</v>
+      </c>
+      <c r="D79" s="1">
+        <v>15.708</v>
+      </c>
+      <c r="E79" s="1">
+        <v>58.899</v>
+      </c>
+      <c r="F79" s="1">
+        <v>25.394</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="1">
+        <v>49.387</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2.903</v>
+      </c>
+      <c r="D80" s="1">
+        <v>19.486</v>
+      </c>
+      <c r="E80" s="1">
+        <v>51.386</v>
+      </c>
+      <c r="F80" s="1">
+        <v>29.129</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="1">
+        <v>49.372</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2.983</v>
+      </c>
+      <c r="D81" s="1">
+        <v>10.424</v>
+      </c>
+      <c r="E81" s="1">
+        <v>67.447</v>
+      </c>
+      <c r="F81" s="1">
+        <v>22.129</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" s="1">
+        <v>49.352</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2.868</v>
+      </c>
+      <c r="D82" s="1">
+        <v>9.187</v>
+      </c>
+      <c r="E82" s="1">
+        <v>62.571</v>
+      </c>
+      <c r="F82" s="1">
+        <v>28.243</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="1">
+        <v>49.346</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2.795</v>
+      </c>
+      <c r="D83" s="1">
+        <v>29.066</v>
+      </c>
+      <c r="E83" s="1">
+        <v>47.585</v>
+      </c>
+      <c r="F83" s="1">
+        <v>23.348</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B84" s="1">
+        <v>49.301</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3.858</v>
+      </c>
+      <c r="D84" s="1">
+        <v>12.28</v>
+      </c>
+      <c r="E84" s="1">
+        <v>68.351</v>
+      </c>
+      <c r="F84" s="1">
+        <v>19.369</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" s="1">
+        <v>49.297</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2.719</v>
+      </c>
+      <c r="D85" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="E85" s="1">
+        <v>53.937</v>
+      </c>
+      <c r="F85" s="1">
+        <v>33.263</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B86" s="1">
+        <v>49.188</v>
+      </c>
+      <c r="C86" s="1">
+        <v>4.413</v>
+      </c>
+      <c r="D86" s="1">
+        <v>30.907</v>
+      </c>
+      <c r="E86" s="1">
+        <v>45.659</v>
+      </c>
+      <c r="F86" s="1">
+        <v>23.434</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" s="1">
+        <v>49.138</v>
+      </c>
+      <c r="C87" s="1">
+        <v>3.577</v>
+      </c>
+      <c r="D87" s="1">
+        <v>22.687</v>
+      </c>
+      <c r="E87" s="1">
+        <v>49.271</v>
+      </c>
+      <c r="F87" s="1">
+        <v>28.042</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="1">
+        <v>49.109</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3.183</v>
+      </c>
+      <c r="D88" s="1">
+        <v>27.817</v>
+      </c>
+      <c r="E88" s="1">
+        <v>49.79</v>
+      </c>
+      <c r="F88" s="1">
+        <v>22.393</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="1">
+        <v>48.997</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3.668</v>
+      </c>
+      <c r="D89" s="1">
+        <v>26.356</v>
+      </c>
+      <c r="E89" s="1">
+        <v>50.168</v>
+      </c>
+      <c r="F89" s="1">
+        <v>23.476</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90" s="1">
+        <v>48.932</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3.847</v>
+      </c>
+      <c r="D90" s="1">
+        <v>9.234</v>
+      </c>
+      <c r="E90" s="1">
+        <v>69.627</v>
+      </c>
+      <c r="F90" s="1">
+        <v>21.139</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="1">
+        <v>48.756</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2.197</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.163</v>
+      </c>
+      <c r="E91" s="1">
+        <v>70.644</v>
+      </c>
+      <c r="F91" s="1">
+        <v>29.193</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" s="1">
+        <v>48.729</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2.193</v>
+      </c>
+      <c r="D92" s="1">
+        <v>2.293</v>
+      </c>
+      <c r="E92" s="1">
+        <v>68.548</v>
+      </c>
+      <c r="F92" s="1">
+        <v>29.159</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="1">
+        <v>48.682</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2.756</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.021</v>
+      </c>
+      <c r="E93" s="1">
+        <v>76.564</v>
+      </c>
+      <c r="F93" s="1">
+        <v>23.414</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>48.655</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2.799</v>
+      </c>
+      <c r="D94" s="1">
+        <v>15.881</v>
+      </c>
+      <c r="E94" s="1">
+        <v>56.231</v>
+      </c>
+      <c r="F94" s="1">
+        <v>27.888</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" s="1">
+        <v>48.538</v>
+      </c>
+      <c r="C95" s="1">
+        <v>3.006</v>
+      </c>
+      <c r="D95" s="1">
+        <v>4.369</v>
+      </c>
+      <c r="E95" s="1">
+        <v>79.414</v>
+      </c>
+      <c r="F95" s="1">
+        <v>16.217</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="1">
+        <v>48.446</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3.377</v>
+      </c>
+      <c r="D96" s="1">
+        <v>36.747</v>
+      </c>
+      <c r="E96" s="1">
+        <v>42.388</v>
+      </c>
+      <c r="F96" s="1">
+        <v>20.865</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B97" s="1">
+        <v>48.408</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2.639</v>
+      </c>
+      <c r="D97" s="1">
+        <v>17.248</v>
+      </c>
+      <c r="E97" s="1">
+        <v>66.005</v>
+      </c>
+      <c r="F97" s="1">
+        <v>16.747</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" s="1">
+        <v>48.247</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2.944</v>
+      </c>
+      <c r="D98" s="1">
+        <v>29.74</v>
+      </c>
+      <c r="E98" s="1">
+        <v>47.393</v>
+      </c>
+      <c r="F98" s="1">
+        <v>22.867</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99" s="1">
+        <v>48.22</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2.556</v>
+      </c>
+      <c r="D99" s="1">
+        <v>17.532</v>
+      </c>
+      <c r="E99" s="1">
+        <v>51.105</v>
+      </c>
+      <c r="F99" s="1">
+        <v>31.363</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" s="1">
+        <v>48.18</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2.788</v>
+      </c>
+      <c r="D100" s="1">
+        <v>18.82</v>
+      </c>
+      <c r="E100" s="1">
+        <v>51.953</v>
+      </c>
+      <c r="F100" s="1">
+        <v>29.227</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" s="1">
+        <v>48.167</v>
+      </c>
+      <c r="C101" s="1">
+        <v>3.092</v>
+      </c>
+      <c r="D101" s="1">
+        <v>17.244</v>
+      </c>
+      <c r="E101" s="1">
+        <v>55.569</v>
+      </c>
+      <c r="F101" s="1">
+        <v>27.187</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" s="1">
+        <v>48.121</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2.758</v>
+      </c>
+      <c r="D102" s="1">
+        <v>34.485</v>
+      </c>
+      <c r="E102" s="1">
+        <v>42.515</v>
+      </c>
+      <c r="F102" s="1">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" s="1">
+        <v>48.119</v>
+      </c>
+      <c r="C103" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="D103" s="1">
+        <v>11.281</v>
+      </c>
+      <c r="E103" s="1">
+        <v>54.531</v>
+      </c>
+      <c r="F103" s="1">
+        <v>34.188</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" s="1">
+        <v>48.027</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2.426</v>
+      </c>
+      <c r="D104" s="1">
+        <v>11.179</v>
+      </c>
+      <c r="E104" s="1">
+        <v>54.387</v>
+      </c>
+      <c r="F104" s="1">
+        <v>34.435</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105" s="1">
+        <v>47.963</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2.597</v>
+      </c>
+      <c r="D105" s="1">
+        <v>11.158</v>
+      </c>
+      <c r="E105" s="1">
+        <v>59.524</v>
+      </c>
+      <c r="F105" s="1">
+        <v>29.318</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B106" s="1">
+        <v>47.958</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2.517</v>
+      </c>
+      <c r="D106" s="1">
+        <v>12.849</v>
+      </c>
+      <c r="E106" s="1">
+        <v>58.206</v>
+      </c>
+      <c r="F106" s="1">
+        <v>28.946</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" s="1">
+        <v>47.891</v>
+      </c>
+      <c r="C107" s="1">
+        <v>3.288</v>
+      </c>
+      <c r="D107" s="1">
+        <v>39.492</v>
+      </c>
+      <c r="E107" s="1">
+        <v>36.43</v>
+      </c>
+      <c r="F107" s="1">
+        <v>24.077</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B108" s="1">
+        <v>47.843</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2.177</v>
+      </c>
+      <c r="D108" s="1">
+        <v>8.433</v>
+      </c>
+      <c r="E108" s="1">
+        <v>66.867</v>
+      </c>
+      <c r="F108" s="1">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B109" s="1">
+        <v>47.831</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2.725</v>
+      </c>
+      <c r="D109" s="1">
+        <v>23.746</v>
+      </c>
+      <c r="E109" s="1">
+        <v>45.37</v>
+      </c>
+      <c r="F109" s="1">
+        <v>30.884</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B110" s="1">
+        <v>47.772</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2.391</v>
+      </c>
+      <c r="D110" s="1">
+        <v>30.107</v>
+      </c>
+      <c r="E110" s="1">
+        <v>45.386</v>
+      </c>
+      <c r="F110" s="1">
+        <v>24.507</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="1">
+        <v>47.721</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2.705</v>
+      </c>
+      <c r="D111" s="1">
+        <v>16.53</v>
+      </c>
+      <c r="E111" s="1">
+        <v>57.99</v>
+      </c>
+      <c r="F111" s="1">
+        <v>25.48</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B112" s="1">
+        <v>47.534</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2.141</v>
+      </c>
+      <c r="D112" s="1">
+        <v>7.318</v>
+      </c>
+      <c r="E112" s="1">
+        <v>73.43</v>
+      </c>
+      <c r="F112" s="1">
+        <v>19.253</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="1">
+        <v>47.123</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2.587</v>
+      </c>
+      <c r="D113" s="1">
+        <v>7.369</v>
+      </c>
+      <c r="E113" s="1">
+        <v>63.455</v>
+      </c>
+      <c r="F113" s="1">
+        <v>29.176</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B114" s="1">
+        <v>47.042</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2.489</v>
+      </c>
+      <c r="D114" s="1">
+        <v>14.159</v>
+      </c>
+      <c r="E114" s="1">
+        <v>59.065</v>
+      </c>
+      <c r="F114" s="1">
+        <v>26.776</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B115" s="1">
+        <v>46.989</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2.442</v>
+      </c>
+      <c r="D115" s="1">
+        <v>29.949</v>
+      </c>
+      <c r="E115" s="1">
+        <v>47.005</v>
+      </c>
+      <c r="F115" s="1">
+        <v>23.047</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" s="1">
+        <v>46.955</v>
+      </c>
+      <c r="C116" s="1">
+        <v>3.255</v>
+      </c>
+      <c r="D116" s="1">
+        <v>24.991</v>
+      </c>
+      <c r="E116" s="1">
+        <v>49.948</v>
+      </c>
+      <c r="F116" s="1">
+        <v>25.061</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" s="1">
+        <v>46.936</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2.27</v>
+      </c>
+      <c r="D117" s="1">
+        <v>20.132</v>
+      </c>
+      <c r="E117" s="1">
+        <v>54.398</v>
+      </c>
+      <c r="F117" s="1">
+        <v>25.47</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B118" s="1">
+        <v>46.669</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2.754</v>
+      </c>
+      <c r="D118" s="1">
+        <v>19.714</v>
+      </c>
+      <c r="E118" s="1">
+        <v>53.505</v>
+      </c>
+      <c r="F118" s="1">
+        <v>26.781</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B119" s="1">
+        <v>46.621</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2.587</v>
+      </c>
+      <c r="D119" s="1">
+        <v>21.055</v>
+      </c>
+      <c r="E119" s="1">
+        <v>53.58</v>
+      </c>
+      <c r="F119" s="1">
+        <v>25.365</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B120" s="1">
+        <v>46.57</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2.224</v>
+      </c>
+      <c r="D120" s="1">
+        <v>14.704</v>
+      </c>
+      <c r="E120" s="1">
+        <v>56.403</v>
+      </c>
+      <c r="F120" s="1">
+        <v>28.892</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B121" s="1">
+        <v>46.524</v>
+      </c>
+      <c r="C121" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="D121" s="1">
+        <v>29.374</v>
+      </c>
+      <c r="E121" s="1">
+        <v>44.598</v>
+      </c>
+      <c r="F121" s="1">
+        <v>26.028</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B122" s="1">
+        <v>46.491</v>
+      </c>
+      <c r="C122" s="1">
+        <v>3.635</v>
+      </c>
+      <c r="D122" s="1">
+        <v>25.994</v>
+      </c>
+      <c r="E122" s="1">
+        <v>50.439</v>
+      </c>
+      <c r="F122" s="1">
+        <v>23.567</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B123" s="1">
+        <v>46.453</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2.319</v>
+      </c>
+      <c r="D123" s="1">
+        <v>27.973</v>
+      </c>
+      <c r="E123" s="1">
+        <v>44.901</v>
+      </c>
+      <c r="F123" s="1">
+        <v>27.126</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B124" s="1">
+        <v>46.417</v>
+      </c>
+      <c r="C124" s="1">
+        <v>3.199</v>
+      </c>
+      <c r="D124" s="1">
+        <v>34.139</v>
+      </c>
+      <c r="E124" s="1">
+        <v>42.883</v>
+      </c>
+      <c r="F124" s="1">
+        <v>22.979</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B125" s="1">
+        <v>46.389</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="D125" s="1">
+        <v>11.783</v>
+      </c>
+      <c r="E125" s="1">
+        <v>58.565</v>
+      </c>
+      <c r="F125" s="1">
+        <v>29.652</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B126" s="1">
+        <v>46.306</v>
+      </c>
+      <c r="C126" s="1">
+        <v>3.326</v>
+      </c>
+      <c r="D126" s="1">
+        <v>24.655</v>
+      </c>
+      <c r="E126" s="1">
+        <v>55.445</v>
+      </c>
+      <c r="F126" s="1">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B127" s="1">
+        <v>46.274</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2.831</v>
+      </c>
+      <c r="D127" s="1">
+        <v>8.84</v>
+      </c>
+      <c r="E127" s="1">
+        <v>61.7</v>
+      </c>
+      <c r="F127" s="1">
+        <v>29.46</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" s="1">
+        <v>46.18</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2.293</v>
+      </c>
+      <c r="D128" s="1">
+        <v>21.385</v>
+      </c>
+      <c r="E128" s="1">
+        <v>58.258</v>
+      </c>
+      <c r="F128" s="1">
+        <v>20.356</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B129" s="1">
+        <v>46.177</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2.526</v>
+      </c>
+      <c r="D129" s="1">
+        <v>20.415</v>
+      </c>
+      <c r="E129" s="1">
+        <v>54.612</v>
+      </c>
+      <c r="F129" s="1">
+        <v>24.973</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B130" s="1">
+        <v>46.052</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2.64</v>
+      </c>
+      <c r="D130" s="1">
+        <v>18.579</v>
+      </c>
+      <c r="E130" s="1">
+        <v>51.2</v>
+      </c>
+      <c r="F130" s="1">
+        <v>30.221</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B131" s="1">
+        <v>46.024</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2.488</v>
+      </c>
+      <c r="D131" s="1">
+        <v>29.156</v>
+      </c>
+      <c r="E131" s="1">
+        <v>44.414</v>
+      </c>
+      <c r="F131" s="1">
+        <v>26.43</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B132" s="1">
+        <v>45.975</v>
+      </c>
+      <c r="C132" s="1">
+        <v>3.427</v>
+      </c>
+      <c r="D132" s="1">
+        <v>18.566</v>
+      </c>
+      <c r="E132" s="1">
+        <v>63.819</v>
+      </c>
+      <c r="F132" s="1">
+        <v>17.615</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45.96</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1.851</v>
+      </c>
+      <c r="D133" s="1">
+        <v>35.647</v>
+      </c>
+      <c r="E133" s="1">
+        <v>37.845</v>
+      </c>
+      <c r="F133" s="1">
+        <v>26.509</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134" s="1">
+        <v>45.829</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2.059</v>
+      </c>
+      <c r="D134" s="1">
+        <v>22.185</v>
+      </c>
+      <c r="E134" s="1">
+        <v>50.252</v>
+      </c>
+      <c r="F134" s="1">
+        <v>27.562</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B135" s="1">
+        <v>45.824</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D135" s="1">
+        <v>16.955</v>
+      </c>
+      <c r="E135" s="1">
+        <v>54.161</v>
+      </c>
+      <c r="F135" s="1">
+        <v>28.884</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B136" s="1">
+        <v>45.819</v>
+      </c>
+      <c r="C136" s="1">
+        <v>3.897</v>
+      </c>
+      <c r="D136" s="1">
+        <v>17.754</v>
+      </c>
+      <c r="E136" s="1">
+        <v>63.348</v>
+      </c>
+      <c r="F136" s="1">
+        <v>18.897</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B137" s="1">
+        <v>45.62</v>
+      </c>
+      <c r="C137" s="1">
+        <v>-1.268</v>
+      </c>
+      <c r="D137" s="1">
+        <v>33.073</v>
+      </c>
+      <c r="E137" s="1">
+        <v>45.277</v>
+      </c>
+      <c r="F137" s="1">
+        <v>21.65</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B138" s="1">
+        <v>45.54</v>
+      </c>
+      <c r="C138" s="1">
+        <v>4.073</v>
+      </c>
+      <c r="D138" s="1">
+        <v>25.919</v>
+      </c>
+      <c r="E138" s="1">
+        <v>47.467</v>
+      </c>
+      <c r="F138" s="1">
+        <v>26.614</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B139" s="1">
+        <v>45.525</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2.512</v>
+      </c>
+      <c r="D139" s="1">
+        <v>21.951</v>
+      </c>
+      <c r="E139" s="1">
+        <v>51.461</v>
+      </c>
+      <c r="F139" s="1">
+        <v>26.587</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="1">
+        <v>45.404</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1.622</v>
+      </c>
+      <c r="D140" s="1">
+        <v>29.905</v>
+      </c>
+      <c r="E140" s="1">
+        <v>44.829</v>
+      </c>
+      <c r="F140" s="1">
+        <v>25.266</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B141" s="1">
+        <v>45.294</v>
+      </c>
+      <c r="C141" s="1">
+        <v>5.357</v>
+      </c>
+      <c r="D141" s="1">
+        <v>32.612</v>
+      </c>
+      <c r="E141" s="1">
+        <v>48.075</v>
+      </c>
+      <c r="F141" s="1">
+        <v>19.314</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B142" s="1">
+        <v>45.163</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1.607</v>
+      </c>
+      <c r="D142" s="1">
+        <v>33.985</v>
+      </c>
+      <c r="E142" s="1">
+        <v>42.231</v>
+      </c>
+      <c r="F142" s="1">
+        <v>23.784</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="1">
+        <v>45.084</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2.711</v>
+      </c>
+      <c r="D143" s="1">
+        <v>19.55</v>
+      </c>
+      <c r="E143" s="1">
+        <v>50.699</v>
+      </c>
+      <c r="F143" s="1">
+        <v>29.751</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B144" s="1">
+        <v>45.066</v>
+      </c>
+      <c r="C144" s="1">
+        <v>5.142</v>
+      </c>
+      <c r="D144" s="1">
+        <v>43.134</v>
+      </c>
+      <c r="E144" s="1">
+        <v>33.795</v>
+      </c>
+      <c r="F144" s="1">
+        <v>23.071</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B145" s="1">
+        <v>45.057</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1.622</v>
+      </c>
+      <c r="D145" s="1">
+        <v>36.178</v>
+      </c>
+      <c r="E145" s="1">
+        <v>39.13</v>
+      </c>
+      <c r="F145" s="1">
+        <v>24.693</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B146" s="1">
+        <v>45.044</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2.001</v>
+      </c>
+      <c r="D146" s="1">
+        <v>24.425</v>
+      </c>
+      <c r="E146" s="1">
+        <v>51.35</v>
+      </c>
+      <c r="F146" s="1">
+        <v>24.225</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B147" s="1">
+        <v>44.795</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1.116</v>
+      </c>
+      <c r="D147" s="1">
+        <v>17.942</v>
+      </c>
+      <c r="E147" s="1">
+        <v>60.281</v>
+      </c>
+      <c r="F147" s="1">
+        <v>21.777</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B148" s="1">
+        <v>44.269</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0.081</v>
+      </c>
+      <c r="D148" s="1">
+        <v>19.631</v>
+      </c>
+      <c r="E148" s="1">
+        <v>60.15</v>
+      </c>
+      <c r="F148" s="1">
+        <v>20.219</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B149" s="1">
+        <v>44.184</v>
+      </c>
+      <c r="C149" s="1">
+        <v>2.041</v>
+      </c>
+      <c r="D149" s="1">
+        <v>18.858</v>
+      </c>
+      <c r="E149" s="1">
+        <v>53.507</v>
+      </c>
+      <c r="F149" s="1">
+        <v>27.635</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B150" s="1">
+        <v>43.163</v>
+      </c>
+      <c r="C150" s="1">
+        <v>-0.227</v>
+      </c>
+      <c r="D150" s="1">
+        <v>29.484</v>
+      </c>
+      <c r="E150" s="1">
+        <v>46.109</v>
+      </c>
+      <c r="F150" s="1">
+        <v>24.407</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B151" s="1">
+        <v>42.902</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1.749</v>
+      </c>
+      <c r="D151" s="1">
+        <v>28.186</v>
+      </c>
+      <c r="E151" s="1">
+        <v>49.899</v>
+      </c>
+      <c r="F151" s="1">
+        <v>21.914</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B152" s="1">
+        <v>42.883</v>
+      </c>
+      <c r="C152" s="1">
+        <v>-0.007</v>
+      </c>
+      <c r="D152" s="1">
+        <v>23.435</v>
+      </c>
+      <c r="E152" s="1">
+        <v>55.003</v>
+      </c>
+      <c r="F152" s="1">
+        <v>21.563</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B153" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="C153" s="1">
+        <v>-1.401</v>
+      </c>
+      <c r="D153" s="1">
+        <v>35.53</v>
+      </c>
+      <c r="E153" s="1">
+        <v>40.31</v>
+      </c>
+      <c r="F153" s="1">
+        <v>24.161</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B154" s="1">
+        <v>42.551</v>
+      </c>
+      <c r="C154" s="1">
+        <v>2.317</v>
+      </c>
+      <c r="D154" s="1">
+        <v>18.366</v>
+      </c>
+      <c r="E154" s="1">
+        <v>61.933</v>
+      </c>
+      <c r="F154" s="1">
+        <v>19.701</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B155" s="1">
+        <v>41.871</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1.506</v>
+      </c>
+      <c r="D155" s="1">
+        <v>28.425</v>
+      </c>
+      <c r="E155" s="1">
+        <v>47.655</v>
+      </c>
+      <c r="F155" s="1">
+        <v>23.921</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" s="1">
+        <v>41.665</v>
+      </c>
+      <c r="C156" s="1">
+        <v>0.983</v>
+      </c>
+      <c r="D156" s="1">
+        <v>25.328</v>
+      </c>
+      <c r="E156" s="1">
+        <v>49.636</v>
+      </c>
+      <c r="F156" s="1">
+        <v>25.036</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B157" s="1">
+        <v>41.441</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2.099</v>
+      </c>
+      <c r="D157" s="1">
+        <v>23.213</v>
+      </c>
+      <c r="E157" s="1">
+        <v>47.959</v>
+      </c>
+      <c r="F157" s="1">
+        <v>28.827</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B158" s="1">
+        <v>40.656</v>
+      </c>
+      <c r="C158" s="1">
+        <v>2.029</v>
+      </c>
+      <c r="D158" s="1">
+        <v>15.856</v>
+      </c>
+      <c r="E158" s="1">
+        <v>55.594</v>
+      </c>
+      <c r="F158" s="1">
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B159" s="1">
+        <v>40.537</v>
+      </c>
+      <c r="C159" s="1">
+        <v>-0.685</v>
+      </c>
+      <c r="D159" s="1">
+        <v>24.311</v>
+      </c>
+      <c r="E159" s="1">
+        <v>54.584</v>
+      </c>
+      <c r="F159" s="1">
+        <v>21.105</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B160" s="1">
+        <v>39.443</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1.798</v>
+      </c>
+      <c r="D160" s="1">
+        <v>26.784</v>
+      </c>
+      <c r="E160" s="1">
+        <v>47.673</v>
+      </c>
+      <c r="F160" s="1">
+        <v>25.543</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B161" s="1">
+        <v>38.726</v>
+      </c>
+      <c r="C161" s="1">
+        <v>4.121</v>
+      </c>
+      <c r="D161" s="1">
+        <v>35.401</v>
+      </c>
+      <c r="E161" s="1">
+        <v>41.221</v>
+      </c>
+      <c r="F161" s="1">
+        <v>23.378</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B162" s="1">
+        <v>36.351</v>
+      </c>
+      <c r="C162" s="1">
+        <v>0.245</v>
+      </c>
+      <c r="D162" s="1">
+        <v>25.054</v>
+      </c>
+      <c r="E162" s="1">
+        <v>47.897</v>
+      </c>
+      <c r="F162" s="1">
+        <v>27.049</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B163" s="1">
+        <v>35.126</v>
+      </c>
+      <c r="C163" s="1">
+        <v>-2.268</v>
+      </c>
+      <c r="D163" s="1">
+        <v>34.426</v>
+      </c>
+      <c r="E163" s="1">
+        <v>45.225</v>
+      </c>
+      <c r="F163" s="1">
+        <v>20.349</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" s="1">
+        <v>34.343</v>
+      </c>
+      <c r="C164" s="1">
+        <v>-2.428</v>
+      </c>
+      <c r="D164" s="1">
+        <v>48.692</v>
+      </c>
+      <c r="E164" s="1">
+        <v>24.383</v>
+      </c>
+      <c r="F164" s="1">
+        <v>26.925</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" s="2">
+        <v>0.4827</v>
+      </c>
+      <c r="C166" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0.1226</v>
+      </c>
+      <c r="E166" s="2">
+        <v>0.5828</v>
+      </c>
+      <c r="F166" s="2">
+        <v>0.2946</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
